--- a/PPG/Blog_IES.xlsx
+++ b/PPG/Blog_IES.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48EB9D-BD38-C546-AEE9-51CF605A5DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A007EF-E6CC-D442-B720-0A5DF6ED73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="15" r:id="rId1"/>
-    <sheet name="2021" sheetId="1" r:id="rId2"/>
-    <sheet name="2020" sheetId="2" r:id="rId3"/>
-    <sheet name="2019" sheetId="8" r:id="rId4"/>
-    <sheet name="2018" sheetId="7" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2016" sheetId="5" r:id="rId7"/>
-    <sheet name="2015" sheetId="11" r:id="rId8"/>
-    <sheet name="2014" sheetId="10" r:id="rId9"/>
-    <sheet name="2013" sheetId="9" r:id="rId10"/>
+    <sheet name="2023" sheetId="16" r:id="rId1"/>
+    <sheet name="2022" sheetId="15" r:id="rId2"/>
+    <sheet name="2021" sheetId="1" r:id="rId3"/>
+    <sheet name="2020" sheetId="2" r:id="rId4"/>
+    <sheet name="2019" sheetId="8" r:id="rId5"/>
+    <sheet name="2018" sheetId="7" r:id="rId6"/>
+    <sheet name="2017" sheetId="6" r:id="rId7"/>
+    <sheet name="2016" sheetId="5" r:id="rId8"/>
+    <sheet name="2015" sheetId="11" r:id="rId9"/>
+    <sheet name="2014" sheetId="10" r:id="rId10"/>
+    <sheet name="2013" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="169">
   <si>
     <t>Publicação</t>
   </si>
@@ -544,6 +545,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/xix-semana-internacional-de-pesquisa-extensao-e-inovacao-da-unisuam/</t>
+  </si>
+  <si>
+    <t>Pesquisadora do Programa de Pós-Graduação da UNISUAM ganha Certificação Internacional</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/pesquisadora-do-programa-de-pos-graduacao-da-unisuam-ganha-certificacao-internacional/</t>
   </si>
 </sst>
 </file>
@@ -919,10 +926,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BABD60-4F88-7A4C-B8AB-7760AB881A42}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41892</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{175E55AD-4B59-0C43-96E2-7638D72788FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>41495</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>41376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
+    <sortCondition descending="1" ref="A2:A4"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1120,77 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>41544</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>41495</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>41376</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
-    <sortCondition descending="1" ref="A2:A4"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{14BFDA5E-D404-0E41-9E36-357952D300AD}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{90E95351-4F8A-2E4A-970C-42A7F02F5707}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{27F486F5-FD99-FB44-80DB-8D48E9E943BB}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4F1D8-3C59-3040-AE37-239E93101BCF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1308,7 +1401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE037EEE-6808-0D49-851E-79F849A82658}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1366,7 +1459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0B706-7D6A-0B4B-9FAF-9D5F61DDE500}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1520,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1662,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDD696-0EC2-6943-8192-402E1F595E40}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -1972,7 +2065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB0E70C-191D-3B4A-A0F5-97DE08090027}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2114,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D54DF-EE82-5F4E-81E4-885ED173C8CE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2194,47 +2287,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BABD60-4F88-7A4C-B8AB-7760AB881A42}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>41892</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{175E55AD-4B59-0C43-96E2-7638D72788FF}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/PPG/Blog_IES.xlsx
+++ b/PPG/Blog_IES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A007EF-E6CC-D442-B720-0A5DF6ED73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619DB59-6E37-3747-ABA2-2FDF8995081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
   <si>
     <t>Publicação</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/pesquisadora-do-programa-de-pos-graduacao-da-unisuam-ganha-certificacao-internacional/</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/encontro-cientifico-da-abrafin-reune-mestres-e-doutores-da-unisuam/</t>
+  </si>
+  <si>
+    <t>Encontro Científico da ABRAFIN reúne Mestres e Doutores da UNISUAM</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,18 +957,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>45014</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Blog_IES.xlsx
+++ b/PPG/Blog_IES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619DB59-6E37-3747-ABA2-2FDF8995081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C9ED6-8B49-8746-A399-92DCE8796D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
   <si>
     <t>Publicação</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>Encontro Científico da ABRAFIN reúne Mestres e Doutores da UNISUAM</t>
+  </si>
+  <si>
+    <t>Doutoranda em Ciências da Reabilitação da UNISUAM representa o Brasil em Londres</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/doutoranda-em-ciencias-da-reabilitacao-da-unisuam-representa-o-brasil-em-londres/</t>
   </si>
 </sst>
 </file>
@@ -933,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,30 +963,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>45014</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Blog_IES.xlsx
+++ b/PPG/Blog_IES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C9ED6-8B49-8746-A399-92DCE8796D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71576CDF-B0B3-2748-A0A4-32B682794990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
   <si>
     <t>Publicação</t>
   </si>
@@ -563,6 +563,33 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/doutoranda-em-ciencias-da-reabilitacao-da-unisuam-representa-o-brasil-em-londres/</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/programas-de-mestrado-e-doutorado-da-unisuam-recebem-alunos-em-aula-especial/</t>
+  </si>
+  <si>
+    <t>Programas de Mestrado e Doutorado da UNISUAM recebem alunos em aulas especiais</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>03/04/2023</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/egressos-de-ciencias-da-reabilitacao-da-unisuam-sao-aprovados-em-concurso-publico/</t>
+  </si>
+  <si>
+    <t>Egressos de Ciências da Reabilitação da UNISUAM são aprovados em concurso público</t>
   </si>
 </sst>
 </file>
@@ -618,12 +645,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -939,7 +967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -962,43 +990,67 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45021</v>
+      <c r="A2" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45019</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45014</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{50E8C245-3F7E-F144-8AA9-022E5BE9A0E6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Blog_IES.xlsx
+++ b/PPG/Blog_IES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71576CDF-B0B3-2748-A0A4-32B682794990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88A4AB-D245-4C48-9F7C-2427970E8A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
   <si>
     <t>Publicação</t>
   </si>
@@ -590,6 +590,15 @@
   </si>
   <si>
     <t>Egressos de Ciências da Reabilitação da UNISUAM são aprovados em concurso público</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/egresso-de-ciencias-da-reabilitacao-da-unisuam-e-professor-na-universidade-estadual-do-norte-do-parana-uenp/</t>
+  </si>
+  <si>
+    <t>Egresso de Ciências da Reabilitação da UNISUAM é professor na Universidade Estadual do Norte do Paraná (UENP)</t>
   </si>
 </sst>
 </file>
@@ -967,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,66 +1000,78 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{50E8C245-3F7E-F144-8AA9-022E5BE9A0E6}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Blog_IES.xlsx
+++ b/PPG/Blog_IES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88A4AB-D245-4C48-9F7C-2427970E8A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F9CC76-2DFC-4148-BF3C-823A2101EFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="188">
   <si>
     <t>Publicação</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>Egresso de Ciências da Reabilitação da UNISUAM é professor na Universidade Estadual do Norte do Paraná (UENP)</t>
+  </si>
+  <si>
+    <t>14/06/2023</t>
+  </si>
+  <si>
+    <t>I Encontro de Pesquisa e Iniciação Científica UNISUAM: veja tudo o que rolou</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/sem-categoria/i-epic-unisuam-veja-tudo-o-que-rolou/</t>
   </si>
 </sst>
 </file>
@@ -976,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F5BFB-A582-AA46-8C14-5E9D48693FD9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,78 +1009,89 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{D3FA2F01-6274-2A47-B5C9-626736680A5A}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{35C0C090-0C27-4948-9DCE-3E86B7E64AEC}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{728171B2-E822-9A41-BB13-28C3BC732E7D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{453E1A82-B6F0-124A-9A67-667715C54340}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{9B992C73-0F46-6446-9F86-E4161F1FAE85}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{4A996B95-B3E4-CD4E-A5DD-7591CC89E1C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
